--- a/examples/data/damages_EAD/static/output_graph/hazard_names.xlsx
+++ b/examples/data/damages_EAD/static/output_graph/hazard_names.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>data/damages_EAD/static/hazard/RP_100.tif</t>
+          <t>data\damages_EAD\static\hazard\RP_100.tif</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>data/damages_EAD/static/hazard/RP_100.tif</t>
+          <t>data\damages_EAD\static\hazard\RP_100.tif</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>data/damages_EAD/static/hazard/RP_1000.tif</t>
+          <t>data\damages_EAD\static\hazard\RP_1000.tif</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>data/damages_EAD/static/hazard/RP_1000.tif</t>
+          <t>data\damages_EAD\static\hazard\RP_1000.tif</t>
         </is>
       </c>
     </row>

--- a/examples/data/damages_EAD/static/output_graph/hazard_names.xlsx
+++ b/examples/data/damages_EAD/static/output_graph/hazard_names.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>data\damages_EAD\static\hazard\RP_100.tif</t>
+          <t>data/damages_EAD/static/hazard/RP_100.tif</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>data\damages_EAD\static\hazard\RP_100.tif</t>
+          <t>data/damages_EAD/static/hazard/RP_100.tif</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>data\damages_EAD\static\hazard\RP_1000.tif</t>
+          <t>data/damages_EAD/static/hazard/RP_1000.tif</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>data\damages_EAD\static\hazard\RP_1000.tif</t>
+          <t>data/damages_EAD/static/hazard/RP_1000.tif</t>
         </is>
       </c>
     </row>
